--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/15/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/15/seed5/result_data_KNN.xlsx
@@ -482,16 +482,16 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>5.924</v>
+        <v>5.612</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.864</v>
+        <v>-12.285</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.092</v>
+        <v>16.548</v>
       </c>
     </row>
     <row r="4">
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.932</v>
+        <v>16.71</v>
       </c>
     </row>
     <row r="7">
@@ -573,7 +573,7 @@
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.370000000000001</v>
+        <v>-8.401</v>
       </c>
       <c r="E8" t="n">
         <v>16.54</v>
@@ -610,7 +610,7 @@
         <v>-8.85</v>
       </c>
       <c r="E10" t="n">
-        <v>16.796</v>
+        <v>16.661</v>
       </c>
     </row>
     <row r="11">
@@ -624,7 +624,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.308</v>
+        <v>-7.391</v>
       </c>
       <c r="E11" t="n">
         <v>17.04</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.542</v>
+        <v>-21.629</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,13 +669,13 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.452</v>
+        <v>6.228</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.94</v>
+        <v>-7.528999999999999</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.25</v>
+        <v>-8.175000000000001</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -726,7 +726,7 @@
         <v>-14.84</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.302000000000001</v>
+        <v>-8.446</v>
       </c>
       <c r="E17" t="n">
         <v>15.63</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.536</v>
+        <v>-12.149</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -859,7 +859,7 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-12.718</v>
+        <v>-12.431</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -873,13 +873,13 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.374000000000001</v>
+        <v>6.142</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.77</v>
+        <v>-8</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.424</v>
+        <v>-21.589</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.588</v>
+        <v>16.561</v>
       </c>
     </row>
     <row r="28">
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.874</v>
+        <v>-12.717</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>6.106</v>
+        <v>6.371</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.512</v>
+        <v>-21.439</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>17.816</v>
+        <v>17.558</v>
       </c>
     </row>
     <row r="34">
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.128</v>
+        <v>7.657000000000001</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.464</v>
+        <v>-20.761</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-8.858000000000001</v>
+        <v>-8.375</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>6.824000000000001</v>
+        <v>7.641</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-20.63</v>
+        <v>-20.223</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.18</v>
+        <v>16.643</v>
       </c>
     </row>
     <row r="40">
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-12.944</v>
+        <v>-12.646</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>6.274</v>
+        <v>5.718</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.388</v>
+        <v>-21.515</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1233,13 +1233,13 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-11.634</v>
+        <v>-12.316</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.804</v>
+        <v>16.335</v>
       </c>
     </row>
     <row r="48">
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>4.988</v>
+        <v>5.4</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.724</v>
+        <v>-21.646</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1358,12 +1358,12 @@
         <v>-8.01</v>
       </c>
       <c r="E54" t="n">
-        <v>16.216</v>
+        <v>16.554</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.842</v>
+        <v>-21.899</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-21.42</v>
+        <v>-21.818</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.558</v>
+        <v>16.653</v>
       </c>
     </row>
     <row r="57">
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>6.194000000000001</v>
+        <v>6.090000000000001</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1420,13 +1420,13 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-12.014</v>
+        <v>-12.98</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.684</v>
+        <v>16.675</v>
       </c>
     </row>
     <row r="59">
@@ -1525,7 +1525,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.81</v>
       </c>
       <c r="E64" t="n">
         <v>16.88</v>
@@ -1562,12 +1562,12 @@
         <v>-7.15</v>
       </c>
       <c r="E66" t="n">
-        <v>16.358</v>
+        <v>17.114</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.758</v>
+        <v>-21.588</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.478</v>
+        <v>-21.604</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.098</v>
+        <v>17.13</v>
       </c>
     </row>
     <row r="70">
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.818</v>
+        <v>-21.436</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1664,7 +1664,7 @@
         <v>-7.37</v>
       </c>
       <c r="E72" t="n">
-        <v>17.094</v>
+        <v>16.603</v>
       </c>
     </row>
     <row r="73">
@@ -1760,7 +1760,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.746</v>
+        <v>-12.536</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-7.27</v>
+        <v>-7.813000000000001</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1800,7 +1800,7 @@
         <v>-6.63</v>
       </c>
       <c r="E80" t="n">
-        <v>16.732</v>
+        <v>16.44</v>
       </c>
     </row>
     <row r="81">
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>7.148000000000001</v>
+        <v>6.303</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1834,15 +1834,15 @@
         <v>-7.37</v>
       </c>
       <c r="E82" t="n">
-        <v>16.308</v>
+        <v>16.936</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.31</v>
+        <v>-21.1</v>
       </c>
       <c r="B83" t="n">
-        <v>5.544</v>
+        <v>6.77</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.986</v>
+        <v>16.694</v>
       </c>
     </row>
     <row r="84">
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.046</v>
+        <v>-13.001</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-22.372</v>
+        <v>-22.216</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1947,10 +1947,10 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-12.854</v>
+        <v>-12.116</v>
       </c>
       <c r="D89" t="n">
-        <v>-7.537999999999999</v>
+        <v>-7.423999999999999</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1975,13 +1975,13 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.604</v>
+        <v>-21.632</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-11.342</v>
+        <v>-11.069</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.536</v>
+        <v>-11.509</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-22.138</v>
+        <v>-21.49</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-13.026</v>
+        <v>-13.02</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-21.18</v>
+        <v>-20.682</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.933999999999999</v>
+        <v>5.789</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,10 +2165,10 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>5.953999999999999</v>
+        <v>7.039</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.576</v>
+        <v>-12.779</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
